--- a/sqlserverNext/docs/sqlNext_ParamGenerator.xlsx
+++ b/sqlserverNext/docs/sqlNext_ParamGenerator.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="180">
   <si>
     <t>Source</t>
   </si>
@@ -20,6 +20,9 @@
   </si>
   <si>
     <t>Version</t>
+  </si>
+  <si>
+    <t>Next</t>
   </si>
   <si>
     <t>SQL Server component</t>
@@ -867,8 +870,8 @@
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6">
-        <v>2014.0</v>
+      <c r="D2" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="3"/>
@@ -881,49 +884,49 @@
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O3" s="8"/>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" ref="C4:C72" si="1">IFERROR(__xludf.DUMMYFUNCTION("SPLIT(SUBSTITUTE(B4,""/"",""""),""
@@ -931,103 +934,103 @@
         <v>ACTION</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" s="10">
         <v>1.0</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J4" s="1" t="str">
-        <f t="shared" ref="J4:J72" si="2">"choco:sqlserver:"&amp;$D$2&amp;C4</f>
-        <v>choco:sqlserver:2014ACTION</v>
+        <f t="shared" ref="J4:J72" si="2">"choco:sqlserver"&amp;$D$2&amp;":"&amp;C4</f>
+        <v>choco:sqlserverNext:ACTION</v>
       </c>
       <c r="K4" s="1">
         <v>1.0</v>
       </c>
       <c r="L4" s="3" t="str">
         <f t="shared" ref="L4:L72" si="3">IF(K4,"if (!(Test-Path env:\"&amp;J4&amp;")){$env:"&amp;J4&amp;"="""&amp;G4&amp;"""}","")</f>
-        <v>if (!(Test-Path env:\choco:sqlserver:2014ACTION)){$env:choco:sqlserver:2014ACTION="Install"}</v>
+        <v>if (!(Test-Path env:\choco:sqlserverNext:ACTION)){$env:choco:sqlserverNext:ACTION="Install"}</v>
       </c>
       <c r="M4" s="3" t="str">
         <f t="shared" ref="M4:M72" si="4">"if (Test-Path env:\"&amp;J4&amp;"){Add-Content $configFile """&amp;C4&amp;"=`""$env:"&amp;J4&amp;"`""""}"</f>
-        <v>if (Test-Path env:\choco:sqlserver:2014ACTION){Add-Content $configFile "ACTION=`"$env:choco:sqlserver:2014ACTION`""}</v>
+        <v>if (Test-Path env:\choco:sqlserverNext:ACTION){Add-Content $configFile "ACTION=`"$env:choco:sqlserverNext:ACTION`""}</v>
       </c>
       <c r="N4" s="3" t="str">
         <f t="shared" ref="N4:N72" si="5">"$env:"&amp;J4&amp;"="""""</f>
-        <v>$env:choco:sqlserver:2014ACTION=""</v>
+        <v>$env:choco:sqlserverNext:ACTION=""</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="1"/>
         <v>IACCEPTSQLSERVERLICENSETERMS</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" s="10">
         <v>1.0</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="10" t="b">
         <v>1</v>
       </c>
       <c r="J5" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>choco:sqlserver:2014IACCEPTSQLSERVERLICENSETERMS</v>
+        <v>choco:sqlserverNext:IACCEPTSQLSERVERLICENSETERMS</v>
       </c>
       <c r="K5" s="1">
         <v>1.0</v>
       </c>
       <c r="L5" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>if (!(Test-Path env:\choco:sqlserver:2014IACCEPTSQLSERVERLICENSETERMS)){$env:choco:sqlserver:2014IACCEPTSQLSERVERLICENSETERMS="TRUE"}</v>
+        <v>if (!(Test-Path env:\choco:sqlserverNext:IACCEPTSQLSERVERLICENSETERMS)){$env:choco:sqlserverNext:IACCEPTSQLSERVERLICENSETERMS="TRUE"}</v>
       </c>
       <c r="M5" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>if (Test-Path env:\choco:sqlserver:2014IACCEPTSQLSERVERLICENSETERMS){Add-Content $configFile "IACCEPTSQLSERVERLICENSETERMS=`"$env:choco:sqlserver:2014IACCEPTSQLSERVERLICENSETERMS`""}</v>
+        <v>if (Test-Path env:\choco:sqlserverNext:IACCEPTSQLSERVERLICENSETERMS){Add-Content $configFile "IACCEPTSQLSERVERLICENSETERMS=`"$env:choco:sqlserverNext:IACCEPTSQLSERVERLICENSETERMS`""}</v>
       </c>
       <c r="N5" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>$env:choco:sqlserver:2014IACCEPTSQLSERVERLICENSETERMS=""</v>
+        <v>$env:choco:sqlserverNext:IACCEPTSQLSERVERLICENSETERMS=""</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="1"/>
         <v>ENU</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G6" s="10" t="b">
         <v>1</v>
       </c>
       <c r="J6" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>choco:sqlserver:2014ENU</v>
+        <v>choco:sqlserverNext:ENU</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="3" t="str">
@@ -1036,36 +1039,36 @@
       </c>
       <c r="M6" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>if (Test-Path env:\choco:sqlserver:2014ENU){Add-Content $configFile "ENU=`"$env:choco:sqlserver:2014ENU`""}</v>
+        <v>if (Test-Path env:\choco:sqlserverNext:ENU){Add-Content $configFile "ENU=`"$env:choco:sqlserverNext:ENU`""}</v>
       </c>
       <c r="N6" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>$env:choco:sqlserver:2014ENU=""</v>
+        <v>$env:choco:sqlserverNext:ENU=""</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="1"/>
         <v>UpdateEnabled</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G7" s="10" t="b">
         <v>1</v>
       </c>
       <c r="J7" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>choco:sqlserver:2014UpdateEnabled</v>
+        <v>choco:sqlserverNext:UpdateEnabled</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="3" t="str">
@@ -1074,36 +1077,36 @@
       </c>
       <c r="M7" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>if (Test-Path env:\choco:sqlserver:2014UpdateEnabled){Add-Content $configFile "UpdateEnabled=`"$env:choco:sqlserver:2014UpdateEnabled`""}</v>
+        <v>if (Test-Path env:\choco:sqlserverNext:UpdateEnabled){Add-Content $configFile "UpdateEnabled=`"$env:choco:sqlserverNext:UpdateEnabled`""}</v>
       </c>
       <c r="N7" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>$env:choco:sqlserver:2014UpdateEnabled=""</v>
+        <v>$env:choco:sqlserverNext:UpdateEnabled=""</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="1"/>
         <v>UpdateSource</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J8" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>choco:sqlserver:2014UpdateSource</v>
+        <v>choco:sqlserverNext:UpdateSource</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="3" t="str">
@@ -1112,33 +1115,33 @@
       </c>
       <c r="M8" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>if (Test-Path env:\choco:sqlserver:2014UpdateSource){Add-Content $configFile "UpdateSource=`"$env:choco:sqlserver:2014UpdateSource`""}</v>
+        <v>if (Test-Path env:\choco:sqlserverNext:UpdateSource){Add-Content $configFile "UpdateSource=`"$env:choco:sqlserverNext:UpdateSource`""}</v>
       </c>
       <c r="N8" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>$env:choco:sqlserver:2014UpdateSource=""</v>
+        <v>$env:choco:sqlserverNext:UpdateSource=""</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="1"/>
         <v>CONFIGURATIONFILE</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J9" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>choco:sqlserver:2014CONFIGURATIONFILE</v>
+        <v>choco:sqlserverNext:CONFIGURATIONFILE</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="3" t="str">
@@ -1147,36 +1150,36 @@
       </c>
       <c r="M9" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>if (Test-Path env:\choco:sqlserver:2014CONFIGURATIONFILE){Add-Content $configFile "CONFIGURATIONFILE=`"$env:choco:sqlserver:2014CONFIGURATIONFILE`""}</v>
+        <v>if (Test-Path env:\choco:sqlserverNext:CONFIGURATIONFILE){Add-Content $configFile "CONFIGURATIONFILE=`"$env:choco:sqlserverNext:CONFIGURATIONFILE`""}</v>
       </c>
       <c r="N9" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>$env:choco:sqlserver:2014CONFIGURATIONFILE=""</v>
+        <v>$env:choco:sqlserverNext:CONFIGURATIONFILE=""</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="1"/>
         <v>ERRORREPORTING</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G10" s="10">
         <v>1.0</v>
       </c>
       <c r="J10" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>choco:sqlserver:2014ERRORREPORTING</v>
+        <v>choco:sqlserverNext:ERRORREPORTING</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="3" t="str">
@@ -1185,76 +1188,76 @@
       </c>
       <c r="M10" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>if (Test-Path env:\choco:sqlserver:2014ERRORREPORTING){Add-Content $configFile "ERRORREPORTING=`"$env:choco:sqlserver:2014ERRORREPORTING`""}</v>
+        <v>if (Test-Path env:\choco:sqlserverNext:ERRORREPORTING){Add-Content $configFile "ERRORREPORTING=`"$env:choco:sqlserverNext:ERRORREPORTING`""}</v>
       </c>
       <c r="N10" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>$env:choco:sqlserver:2014ERRORREPORTING=""</v>
+        <v>$env:choco:sqlserverNext:ERRORREPORTING=""</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="1"/>
         <v>FEATURES</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E11" s="10">
         <v>1.0</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J11" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>choco:sqlserver:2014FEATURES</v>
+        <v>choco:sqlserverNext:FEATURES</v>
       </c>
       <c r="K11" s="1">
         <v>1.0</v>
       </c>
       <c r="L11" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>if (!(Test-Path env:\choco:sqlserver:2014FEATURES)){$env:choco:sqlserver:2014FEATURES="SQLENGINE"}</v>
+        <v>if (!(Test-Path env:\choco:sqlserverNext:FEATURES)){$env:choco:sqlserverNext:FEATURES="SQLENGINE"}</v>
       </c>
       <c r="M11" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>if (Test-Path env:\choco:sqlserver:2014FEATURES){Add-Content $configFile "FEATURES=`"$env:choco:sqlserver:2014FEATURES`""}</v>
+        <v>if (Test-Path env:\choco:sqlserverNext:FEATURES){Add-Content $configFile "FEATURES=`"$env:choco:sqlserverNext:FEATURES`""}</v>
       </c>
       <c r="N11" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>$env:choco:sqlserver:2014FEATURES=""</v>
+        <v>$env:choco:sqlserverNext:FEATURES=""</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="1"/>
         <v>HELP</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J12" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>choco:sqlserver:2014HELP</v>
+        <v>choco:sqlserverNext:HELP</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="3" t="str">
@@ -1263,36 +1266,36 @@
       </c>
       <c r="M12" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>if (Test-Path env:\choco:sqlserver:2014HELP){Add-Content $configFile "HELP=`"$env:choco:sqlserver:2014HELP`""}</v>
+        <v>if (Test-Path env:\choco:sqlserverNext:HELP){Add-Content $configFile "HELP=`"$env:choco:sqlserverNext:HELP`""}</v>
       </c>
       <c r="N12" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>$env:choco:sqlserver:2014HELP=""</v>
+        <v>$env:choco:sqlserverNext:HELP=""</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="1"/>
         <v>INDICATEPROGRESS</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G13" s="10" t="b">
         <v>0</v>
       </c>
       <c r="J13" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>choco:sqlserver:2014INDICATEPROGRESS</v>
+        <v>choco:sqlserverNext:INDICATEPROGRESS</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="3" t="str">
@@ -1301,33 +1304,33 @@
       </c>
       <c r="M13" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>if (Test-Path env:\choco:sqlserver:2014INDICATEPROGRESS){Add-Content $configFile "INDICATEPROGRESS=`"$env:choco:sqlserver:2014INDICATEPROGRESS`""}</v>
+        <v>if (Test-Path env:\choco:sqlserverNext:INDICATEPROGRESS){Add-Content $configFile "INDICATEPROGRESS=`"$env:choco:sqlserverNext:INDICATEPROGRESS`""}</v>
       </c>
       <c r="N13" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>$env:choco:sqlserver:2014INDICATEPROGRESS=""</v>
+        <v>$env:choco:sqlserverNext:INDICATEPROGRESS=""</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="1"/>
         <v>INSTALLSHAREDDIR</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J14" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>choco:sqlserver:2014INSTALLSHAREDDIR</v>
+        <v>choco:sqlserverNext:INSTALLSHAREDDIR</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="3" t="str">
@@ -1336,33 +1339,33 @@
       </c>
       <c r="M14" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>if (Test-Path env:\choco:sqlserver:2014INSTALLSHAREDDIR){Add-Content $configFile "INSTALLSHAREDDIR=`"$env:choco:sqlserver:2014INSTALLSHAREDDIR`""}</v>
+        <v>if (Test-Path env:\choco:sqlserverNext:INSTALLSHAREDDIR){Add-Content $configFile "INSTALLSHAREDDIR=`"$env:choco:sqlserverNext:INSTALLSHAREDDIR`""}</v>
       </c>
       <c r="N14" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>$env:choco:sqlserver:2014INSTALLSHAREDDIR=""</v>
+        <v>$env:choco:sqlserverNext:INSTALLSHAREDDIR=""</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="1"/>
         <v>INSTALLSHAREDWOWDIR</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J15" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>choco:sqlserver:2014INSTALLSHAREDWOWDIR</v>
+        <v>choco:sqlserverNext:INSTALLSHAREDWOWDIR</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="3" t="str">
@@ -1371,33 +1374,33 @@
       </c>
       <c r="M15" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>if (Test-Path env:\choco:sqlserver:2014INSTALLSHAREDWOWDIR){Add-Content $configFile "INSTALLSHAREDWOWDIR=`"$env:choco:sqlserver:2014INSTALLSHAREDWOWDIR`""}</v>
+        <v>if (Test-Path env:\choco:sqlserverNext:INSTALLSHAREDWOWDIR){Add-Content $configFile "INSTALLSHAREDWOWDIR=`"$env:choco:sqlserverNext:INSTALLSHAREDWOWDIR`""}</v>
       </c>
       <c r="N15" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>$env:choco:sqlserver:2014INSTALLSHAREDWOWDIR=""</v>
+        <v>$env:choco:sqlserverNext:INSTALLSHAREDWOWDIR=""</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="1"/>
         <v>INSTANCEDIR</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J16" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>choco:sqlserver:2014INSTANCEDIR</v>
+        <v>choco:sqlserverNext:INSTANCEDIR</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="3" t="str">
@@ -1406,36 +1409,36 @@
       </c>
       <c r="M16" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>if (Test-Path env:\choco:sqlserver:2014INSTANCEDIR){Add-Content $configFile "INSTANCEDIR=`"$env:choco:sqlserver:2014INSTANCEDIR`""}</v>
+        <v>if (Test-Path env:\choco:sqlserverNext:INSTANCEDIR){Add-Content $configFile "INSTANCEDIR=`"$env:choco:sqlserverNext:INSTANCEDIR`""}</v>
       </c>
       <c r="N16" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>$env:choco:sqlserver:2014INSTANCEDIR=""</v>
+        <v>$env:choco:sqlserverNext:INSTANCEDIR=""</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="1"/>
         <v>INSTANCEID</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J17" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>choco:sqlserver:2014INSTANCEID</v>
+        <v>choco:sqlserverNext:INSTANCEID</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="3" t="str">
@@ -1444,76 +1447,76 @@
       </c>
       <c r="M17" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>if (Test-Path env:\choco:sqlserver:2014INSTANCEID){Add-Content $configFile "INSTANCEID=`"$env:choco:sqlserver:2014INSTANCEID`""}</v>
+        <v>if (Test-Path env:\choco:sqlserverNext:INSTANCEID){Add-Content $configFile "INSTANCEID=`"$env:choco:sqlserverNext:INSTANCEID`""}</v>
       </c>
       <c r="N17" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>$env:choco:sqlserver:2014INSTANCEID=""</v>
+        <v>$env:choco:sqlserverNext:INSTANCEID=""</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="1"/>
         <v>INSTANCENAME</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E18" s="10">
         <v>1.0</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J18" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>choco:sqlserver:2014INSTANCENAME</v>
+        <v>choco:sqlserverNext:INSTANCENAME</v>
       </c>
       <c r="K18" s="1">
         <v>1.0</v>
       </c>
       <c r="L18" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>if (!(Test-Path env:\choco:sqlserver:2014INSTANCENAME)){$env:choco:sqlserver:2014INSTANCENAME="MSSQLSERVER"}</v>
+        <v>if (!(Test-Path env:\choco:sqlserverNext:INSTANCENAME)){$env:choco:sqlserverNext:INSTANCENAME="MSSQLSERVER"}</v>
       </c>
       <c r="M18" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>if (Test-Path env:\choco:sqlserver:2014INSTANCENAME){Add-Content $configFile "INSTANCENAME=`"$env:choco:sqlserver:2014INSTANCENAME`""}</v>
+        <v>if (Test-Path env:\choco:sqlserverNext:INSTANCENAME){Add-Content $configFile "INSTANCENAME=`"$env:choco:sqlserverNext:INSTANCENAME`""}</v>
       </c>
       <c r="N18" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>$env:choco:sqlserver:2014INSTANCENAME=""</v>
+        <v>$env:choco:sqlserverNext:INSTANCENAME=""</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="1"/>
         <v>PID</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J19" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>choco:sqlserver:2014PID</v>
+        <v>choco:sqlserverNext:PID</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="3" t="str">
@@ -1522,73 +1525,73 @@
       </c>
       <c r="M19" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>if (Test-Path env:\choco:sqlserver:2014PID){Add-Content $configFile "PID=`"$env:choco:sqlserver:2014PID`""}</v>
+        <v>if (Test-Path env:\choco:sqlserverNext:PID){Add-Content $configFile "PID=`"$env:choco:sqlserverNext:PID`""}</v>
       </c>
       <c r="N19" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>$env:choco:sqlserver:2014PID=""</v>
+        <v>$env:choco:sqlserverNext:PID=""</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="1"/>
         <v>Q</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G20" s="10" t="b">
         <v>1</v>
       </c>
       <c r="J20" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>choco:sqlserver:2014Q</v>
+        <v>choco:sqlserverNext:Q</v>
       </c>
       <c r="K20" s="1">
         <v>1.0</v>
       </c>
       <c r="L20" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>if (!(Test-Path env:\choco:sqlserver:2014Q)){$env:choco:sqlserver:2014Q="TRUE"}</v>
+        <v>if (!(Test-Path env:\choco:sqlserverNext:Q)){$env:choco:sqlserverNext:Q="TRUE"}</v>
       </c>
       <c r="M20" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>if (Test-Path env:\choco:sqlserver:2014Q){Add-Content $configFile "Q=`"$env:choco:sqlserver:2014Q`""}</v>
+        <v>if (Test-Path env:\choco:sqlserverNext:Q){Add-Content $configFile "Q=`"$env:choco:sqlserverNext:Q`""}</v>
       </c>
       <c r="N20" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>$env:choco:sqlserver:2014Q=""</v>
+        <v>$env:choco:sqlserverNext:Q=""</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="1"/>
         <v>QS</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J21" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>choco:sqlserver:2014QS</v>
+        <v>choco:sqlserverNext:QS</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="3" t="str">
@@ -1597,33 +1600,33 @@
       </c>
       <c r="M21" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>if (Test-Path env:\choco:sqlserver:2014QS){Add-Content $configFile "QS=`"$env:choco:sqlserver:2014QS`""}</v>
+        <v>if (Test-Path env:\choco:sqlserverNext:QS){Add-Content $configFile "QS=`"$env:choco:sqlserverNext:QS`""}</v>
       </c>
       <c r="N21" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>$env:choco:sqlserver:2014QS=""</v>
+        <v>$env:choco:sqlserverNext:QS=""</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="1"/>
         <v>UIMODE</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J22" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>choco:sqlserver:2014UIMODE</v>
+        <v>choco:sqlserverNext:UIMODE</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="3" t="str">
@@ -1632,33 +1635,33 @@
       </c>
       <c r="M22" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>if (Test-Path env:\choco:sqlserver:2014UIMODE){Add-Content $configFile "UIMODE=`"$env:choco:sqlserver:2014UIMODE`""}</v>
+        <v>if (Test-Path env:\choco:sqlserverNext:UIMODE){Add-Content $configFile "UIMODE=`"$env:choco:sqlserverNext:UIMODE`""}</v>
       </c>
       <c r="N22" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>$env:choco:sqlserver:2014UIMODE=""</v>
+        <v>$env:choco:sqlserverNext:UIMODE=""</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="1"/>
         <v>SQMREPORTING</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J23" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>choco:sqlserver:2014SQMREPORTING</v>
+        <v>choco:sqlserverNext:SQMREPORTING</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="3" t="str">
@@ -1667,33 +1670,33 @@
       </c>
       <c r="M23" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>if (Test-Path env:\choco:sqlserver:2014SQMREPORTING){Add-Content $configFile "SQMREPORTING=`"$env:choco:sqlserver:2014SQMREPORTING`""}</v>
+        <v>if (Test-Path env:\choco:sqlserverNext:SQMREPORTING){Add-Content $configFile "SQMREPORTING=`"$env:choco:sqlserverNext:SQMREPORTING`""}</v>
       </c>
       <c r="N23" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>$env:choco:sqlserver:2014SQMREPORTING=""</v>
+        <v>$env:choco:sqlserverNext:SQMREPORTING=""</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="1"/>
         <v>HIDECONSOLE</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J24" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>choco:sqlserver:2014HIDECONSOLE</v>
+        <v>choco:sqlserverNext:HIDECONSOLE</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="3" t="str">
@@ -1702,36 +1705,36 @@
       </c>
       <c r="M24" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>if (Test-Path env:\choco:sqlserver:2014HIDECONSOLE){Add-Content $configFile "HIDECONSOLE=`"$env:choco:sqlserver:2014HIDECONSOLE`""}</v>
+        <v>if (Test-Path env:\choco:sqlserverNext:HIDECONSOLE){Add-Content $configFile "HIDECONSOLE=`"$env:choco:sqlserverNext:HIDECONSOLE`""}</v>
       </c>
       <c r="N24" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>$env:choco:sqlserver:2014HIDECONSOLE=""</v>
+        <v>$env:choco:sqlserverNext:HIDECONSOLE=""</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="1"/>
         <v>AGTSVCACCOUNT</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J25" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>choco:sqlserver:2014AGTSVCACCOUNT</v>
+        <v>choco:sqlserverNext:AGTSVCACCOUNT</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="3" t="str">
@@ -1740,36 +1743,36 @@
       </c>
       <c r="M25" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>if (Test-Path env:\choco:sqlserver:2014AGTSVCACCOUNT){Add-Content $configFile "AGTSVCACCOUNT=`"$env:choco:sqlserver:2014AGTSVCACCOUNT`""}</v>
+        <v>if (Test-Path env:\choco:sqlserverNext:AGTSVCACCOUNT){Add-Content $configFile "AGTSVCACCOUNT=`"$env:choco:sqlserverNext:AGTSVCACCOUNT`""}</v>
       </c>
       <c r="N25" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>$env:choco:sqlserver:2014AGTSVCACCOUNT=""</v>
+        <v>$env:choco:sqlserverNext:AGTSVCACCOUNT=""</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="1"/>
         <v>AGTSVCPASSWORD</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E26" s="10">
         <v>1.0</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J26" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>choco:sqlserver:2014AGTSVCPASSWORD</v>
+        <v>choco:sqlserverNext:AGTSVCPASSWORD</v>
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="3" t="str">
@@ -1778,36 +1781,36 @@
       </c>
       <c r="M26" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>if (Test-Path env:\choco:sqlserver:2014AGTSVCPASSWORD){Add-Content $configFile "AGTSVCPASSWORD=`"$env:choco:sqlserver:2014AGTSVCPASSWORD`""}</v>
+        <v>if (Test-Path env:\choco:sqlserverNext:AGTSVCPASSWORD){Add-Content $configFile "AGTSVCPASSWORD=`"$env:choco:sqlserverNext:AGTSVCPASSWORD`""}</v>
       </c>
       <c r="N26" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>$env:choco:sqlserver:2014AGTSVCPASSWORD=""</v>
+        <v>$env:choco:sqlserverNext:AGTSVCPASSWORD=""</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="1"/>
         <v>AGTSVCSTARTUPTYPE</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J27" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>choco:sqlserver:2014AGTSVCSTARTUPTYPE</v>
+        <v>choco:sqlserverNext:AGTSVCSTARTUPTYPE</v>
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="3" t="str">
@@ -1816,33 +1819,33 @@
       </c>
       <c r="M27" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>if (Test-Path env:\choco:sqlserver:2014AGTSVCSTARTUPTYPE){Add-Content $configFile "AGTSVCSTARTUPTYPE=`"$env:choco:sqlserver:2014AGTSVCSTARTUPTYPE`""}</v>
+        <v>if (Test-Path env:\choco:sqlserverNext:AGTSVCSTARTUPTYPE){Add-Content $configFile "AGTSVCSTARTUPTYPE=`"$env:choco:sqlserverNext:AGTSVCSTARTUPTYPE`""}</v>
       </c>
       <c r="N27" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>$env:choco:sqlserver:2014AGTSVCSTARTUPTYPE=""</v>
+        <v>$env:choco:sqlserverNext:AGTSVCSTARTUPTYPE=""</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="1"/>
         <v>ASBACKUPDIR</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J28" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>choco:sqlserver:2014ASBACKUPDIR</v>
+        <v>choco:sqlserverNext:ASBACKUPDIR</v>
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="3" t="str">
@@ -1851,33 +1854,33 @@
       </c>
       <c r="M28" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>if (Test-Path env:\choco:sqlserver:2014ASBACKUPDIR){Add-Content $configFile "ASBACKUPDIR=`"$env:choco:sqlserver:2014ASBACKUPDIR`""}</v>
+        <v>if (Test-Path env:\choco:sqlserverNext:ASBACKUPDIR){Add-Content $configFile "ASBACKUPDIR=`"$env:choco:sqlserverNext:ASBACKUPDIR`""}</v>
       </c>
       <c r="N28" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>$env:choco:sqlserver:2014ASBACKUPDIR=""</v>
+        <v>$env:choco:sqlserverNext:ASBACKUPDIR=""</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="1"/>
         <v>ASCOLLATION</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J29" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>choco:sqlserver:2014ASCOLLATION</v>
+        <v>choco:sqlserverNext:ASCOLLATION</v>
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="3" t="str">
@@ -1886,33 +1889,33 @@
       </c>
       <c r="M29" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>if (Test-Path env:\choco:sqlserver:2014ASCOLLATION){Add-Content $configFile "ASCOLLATION=`"$env:choco:sqlserver:2014ASCOLLATION`""}</v>
+        <v>if (Test-Path env:\choco:sqlserverNext:ASCOLLATION){Add-Content $configFile "ASCOLLATION=`"$env:choco:sqlserverNext:ASCOLLATION`""}</v>
       </c>
       <c r="N29" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>$env:choco:sqlserver:2014ASCOLLATION=""</v>
+        <v>$env:choco:sqlserverNext:ASCOLLATION=""</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="1"/>
         <v>ASCONFIGDIR</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J30" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>choco:sqlserver:2014ASCONFIGDIR</v>
+        <v>choco:sqlserverNext:ASCONFIGDIR</v>
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="3" t="str">
@@ -1921,33 +1924,33 @@
       </c>
       <c r="M30" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>if (Test-Path env:\choco:sqlserver:2014ASCONFIGDIR){Add-Content $configFile "ASCONFIGDIR=`"$env:choco:sqlserver:2014ASCONFIGDIR`""}</v>
+        <v>if (Test-Path env:\choco:sqlserverNext:ASCONFIGDIR){Add-Content $configFile "ASCONFIGDIR=`"$env:choco:sqlserverNext:ASCONFIGDIR`""}</v>
       </c>
       <c r="N30" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>$env:choco:sqlserver:2014ASCONFIGDIR=""</v>
+        <v>$env:choco:sqlserverNext:ASCONFIGDIR=""</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="1"/>
         <v>ASDATADIR</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J31" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>choco:sqlserver:2014ASDATADIR</v>
+        <v>choco:sqlserverNext:ASDATADIR</v>
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="3" t="str">
@@ -1956,33 +1959,33 @@
       </c>
       <c r="M31" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>if (Test-Path env:\choco:sqlserver:2014ASDATADIR){Add-Content $configFile "ASDATADIR=`"$env:choco:sqlserver:2014ASDATADIR`""}</v>
+        <v>if (Test-Path env:\choco:sqlserverNext:ASDATADIR){Add-Content $configFile "ASDATADIR=`"$env:choco:sqlserverNext:ASDATADIR`""}</v>
       </c>
       <c r="N31" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>$env:choco:sqlserver:2014ASDATADIR=""</v>
+        <v>$env:choco:sqlserverNext:ASDATADIR=""</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="1"/>
         <v>ASLOGDIR</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J32" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>choco:sqlserver:2014ASLOGDIR</v>
+        <v>choco:sqlserverNext:ASLOGDIR</v>
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="3" t="str">
@@ -1991,33 +1994,33 @@
       </c>
       <c r="M32" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>if (Test-Path env:\choco:sqlserver:2014ASLOGDIR){Add-Content $configFile "ASLOGDIR=`"$env:choco:sqlserver:2014ASLOGDIR`""}</v>
+        <v>if (Test-Path env:\choco:sqlserverNext:ASLOGDIR){Add-Content $configFile "ASLOGDIR=`"$env:choco:sqlserverNext:ASLOGDIR`""}</v>
       </c>
       <c r="N32" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>$env:choco:sqlserver:2014ASLOGDIR=""</v>
+        <v>$env:choco:sqlserverNext:ASLOGDIR=""</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="1"/>
         <v>ASSERVERMODE</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J33" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>choco:sqlserver:2014ASSERVERMODE</v>
+        <v>choco:sqlserverNext:ASSERVERMODE</v>
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="3" t="str">
@@ -2026,36 +2029,36 @@
       </c>
       <c r="M33" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>if (Test-Path env:\choco:sqlserver:2014ASSERVERMODE){Add-Content $configFile "ASSERVERMODE=`"$env:choco:sqlserver:2014ASSERVERMODE`""}</v>
+        <v>if (Test-Path env:\choco:sqlserverNext:ASSERVERMODE){Add-Content $configFile "ASSERVERMODE=`"$env:choco:sqlserverNext:ASSERVERMODE`""}</v>
       </c>
       <c r="N33" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>$env:choco:sqlserver:2014ASSERVERMODE=""</v>
+        <v>$env:choco:sqlserverNext:ASSERVERMODE=""</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" si="1"/>
         <v>ASSVCACCOUNT</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E34" s="10">
         <v>1.0</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J34" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>choco:sqlserver:2014ASSVCACCOUNT</v>
+        <v>choco:sqlserverNext:ASSVCACCOUNT</v>
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="3" t="str">
@@ -2064,33 +2067,33 @@
       </c>
       <c r="M34" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>if (Test-Path env:\choco:sqlserver:2014ASSVCACCOUNT){Add-Content $configFile "ASSVCACCOUNT=`"$env:choco:sqlserver:2014ASSVCACCOUNT`""}</v>
+        <v>if (Test-Path env:\choco:sqlserverNext:ASSVCACCOUNT){Add-Content $configFile "ASSVCACCOUNT=`"$env:choco:sqlserverNext:ASSVCACCOUNT`""}</v>
       </c>
       <c r="N34" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>$env:choco:sqlserver:2014ASSVCACCOUNT=""</v>
+        <v>$env:choco:sqlserverNext:ASSVCACCOUNT=""</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" si="1"/>
         <v>ASSVCPASSWORD</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J35" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>choco:sqlserver:2014ASSVCPASSWORD</v>
+        <v>choco:sqlserverNext:ASSVCPASSWORD</v>
       </c>
       <c r="K35" s="1"/>
       <c r="L35" s="3" t="str">
@@ -2099,33 +2102,33 @@
       </c>
       <c r="M35" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>if (Test-Path env:\choco:sqlserver:2014ASSVCPASSWORD){Add-Content $configFile "ASSVCPASSWORD=`"$env:choco:sqlserver:2014ASSVCPASSWORD`""}</v>
+        <v>if (Test-Path env:\choco:sqlserverNext:ASSVCPASSWORD){Add-Content $configFile "ASSVCPASSWORD=`"$env:choco:sqlserverNext:ASSVCPASSWORD`""}</v>
       </c>
       <c r="N35" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>$env:choco:sqlserver:2014ASSVCPASSWORD=""</v>
+        <v>$env:choco:sqlserverNext:ASSVCPASSWORD=""</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="1"/>
         <v>ASSVCSTARTUPTYPE</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J36" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>choco:sqlserver:2014ASSVCSTARTUPTYPE</v>
+        <v>choco:sqlserverNext:ASSVCSTARTUPTYPE</v>
       </c>
       <c r="K36" s="1"/>
       <c r="L36" s="3" t="str">
@@ -2134,36 +2137,36 @@
       </c>
       <c r="M36" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>if (Test-Path env:\choco:sqlserver:2014ASSVCSTARTUPTYPE){Add-Content $configFile "ASSVCSTARTUPTYPE=`"$env:choco:sqlserver:2014ASSVCSTARTUPTYPE`""}</v>
+        <v>if (Test-Path env:\choco:sqlserverNext:ASSVCSTARTUPTYPE){Add-Content $configFile "ASSVCSTARTUPTYPE=`"$env:choco:sqlserverNext:ASSVCSTARTUPTYPE`""}</v>
       </c>
       <c r="N36" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>$env:choco:sqlserver:2014ASSVCSTARTUPTYPE=""</v>
+        <v>$env:choco:sqlserverNext:ASSVCSTARTUPTYPE=""</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" si="1"/>
         <v>ASSYSADMINACCOUNTS</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E37" s="10">
         <v>1.0</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J37" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>choco:sqlserver:2014ASSYSADMINACCOUNTS</v>
+        <v>choco:sqlserverNext:ASSYSADMINACCOUNTS</v>
       </c>
       <c r="K37" s="1"/>
       <c r="L37" s="3" t="str">
@@ -2172,33 +2175,33 @@
       </c>
       <c r="M37" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>if (Test-Path env:\choco:sqlserver:2014ASSYSADMINACCOUNTS){Add-Content $configFile "ASSYSADMINACCOUNTS=`"$env:choco:sqlserver:2014ASSYSADMINACCOUNTS`""}</v>
+        <v>if (Test-Path env:\choco:sqlserverNext:ASSYSADMINACCOUNTS){Add-Content $configFile "ASSYSADMINACCOUNTS=`"$env:choco:sqlserverNext:ASSYSADMINACCOUNTS`""}</v>
       </c>
       <c r="N37" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>$env:choco:sqlserver:2014ASSYSADMINACCOUNTS=""</v>
+        <v>$env:choco:sqlserverNext:ASSYSADMINACCOUNTS=""</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="1"/>
         <v>ASTEMPDIR</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J38" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>choco:sqlserver:2014ASTEMPDIR</v>
+        <v>choco:sqlserverNext:ASTEMPDIR</v>
       </c>
       <c r="K38" s="1"/>
       <c r="L38" s="3" t="str">
@@ -2207,33 +2210,33 @@
       </c>
       <c r="M38" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>if (Test-Path env:\choco:sqlserver:2014ASTEMPDIR){Add-Content $configFile "ASTEMPDIR=`"$env:choco:sqlserver:2014ASTEMPDIR`""}</v>
+        <v>if (Test-Path env:\choco:sqlserverNext:ASTEMPDIR){Add-Content $configFile "ASTEMPDIR=`"$env:choco:sqlserverNext:ASTEMPDIR`""}</v>
       </c>
       <c r="N38" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>$env:choco:sqlserver:2014ASTEMPDIR=""</v>
+        <v>$env:choco:sqlserverNext:ASTEMPDIR=""</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" si="1"/>
         <v>ASPROVIDERMSOLAP</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J39" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>choco:sqlserver:2014ASPROVIDERMSOLAP</v>
+        <v>choco:sqlserverNext:ASPROVIDERMSOLAP</v>
       </c>
       <c r="K39" s="1"/>
       <c r="L39" s="3" t="str">
@@ -2242,33 +2245,33 @@
       </c>
       <c r="M39" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>if (Test-Path env:\choco:sqlserver:2014ASPROVIDERMSOLAP){Add-Content $configFile "ASPROVIDERMSOLAP=`"$env:choco:sqlserver:2014ASPROVIDERMSOLAP`""}</v>
+        <v>if (Test-Path env:\choco:sqlserverNext:ASPROVIDERMSOLAP){Add-Content $configFile "ASPROVIDERMSOLAP=`"$env:choco:sqlserverNext:ASPROVIDERMSOLAP`""}</v>
       </c>
       <c r="N39" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>$env:choco:sqlserver:2014ASPROVIDERMSOLAP=""</v>
+        <v>$env:choco:sqlserverNext:ASPROVIDERMSOLAP=""</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C40" t="str">
         <f t="shared" si="1"/>
         <v>FARMACCOUNT</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J40" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>choco:sqlserver:2014FARMACCOUNT</v>
+        <v>choco:sqlserverNext:FARMACCOUNT</v>
       </c>
       <c r="K40" s="1"/>
       <c r="L40" s="3" t="str">
@@ -2277,33 +2280,33 @@
       </c>
       <c r="M40" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>if (Test-Path env:\choco:sqlserver:2014FARMACCOUNT){Add-Content $configFile "FARMACCOUNT=`"$env:choco:sqlserver:2014FARMACCOUNT`""}</v>
+        <v>if (Test-Path env:\choco:sqlserverNext:FARMACCOUNT){Add-Content $configFile "FARMACCOUNT=`"$env:choco:sqlserverNext:FARMACCOUNT`""}</v>
       </c>
       <c r="N40" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>$env:choco:sqlserver:2014FARMACCOUNT=""</v>
+        <v>$env:choco:sqlserverNext:FARMACCOUNT=""</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C41" t="str">
         <f t="shared" si="1"/>
         <v>FARMPASSWORD</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J41" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>choco:sqlserver:2014FARMPASSWORD</v>
+        <v>choco:sqlserverNext:FARMPASSWORD</v>
       </c>
       <c r="K41" s="1"/>
       <c r="L41" s="3" t="str">
@@ -2312,33 +2315,33 @@
       </c>
       <c r="M41" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>if (Test-Path env:\choco:sqlserver:2014FARMPASSWORD){Add-Content $configFile "FARMPASSWORD=`"$env:choco:sqlserver:2014FARMPASSWORD`""}</v>
+        <v>if (Test-Path env:\choco:sqlserverNext:FARMPASSWORD){Add-Content $configFile "FARMPASSWORD=`"$env:choco:sqlserverNext:FARMPASSWORD`""}</v>
       </c>
       <c r="N41" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>$env:choco:sqlserver:2014FARMPASSWORD=""</v>
+        <v>$env:choco:sqlserverNext:FARMPASSWORD=""</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" si="1"/>
         <v>PASSPHRASE</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J42" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>choco:sqlserver:2014PASSPHRASE</v>
+        <v>choco:sqlserverNext:PASSPHRASE</v>
       </c>
       <c r="K42" s="1"/>
       <c r="L42" s="3" t="str">
@@ -2347,33 +2350,33 @@
       </c>
       <c r="M42" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>if (Test-Path env:\choco:sqlserver:2014PASSPHRASE){Add-Content $configFile "PASSPHRASE=`"$env:choco:sqlserver:2014PASSPHRASE`""}</v>
+        <v>if (Test-Path env:\choco:sqlserverNext:PASSPHRASE){Add-Content $configFile "PASSPHRASE=`"$env:choco:sqlserverNext:PASSPHRASE`""}</v>
       </c>
       <c r="N42" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>$env:choco:sqlserver:2014PASSPHRASE=""</v>
+        <v>$env:choco:sqlserverNext:PASSPHRASE=""</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" si="1"/>
         <v>FARMADMINIPORT</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J43" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>choco:sqlserver:2014FARMADMINIPORT</v>
+        <v>choco:sqlserverNext:FARMADMINIPORT</v>
       </c>
       <c r="K43" s="1"/>
       <c r="L43" s="3" t="str">
@@ -2382,36 +2385,36 @@
       </c>
       <c r="M43" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>if (Test-Path env:\choco:sqlserver:2014FARMADMINIPORT){Add-Content $configFile "FARMADMINIPORT=`"$env:choco:sqlserver:2014FARMADMINIPORT`""}</v>
+        <v>if (Test-Path env:\choco:sqlserverNext:FARMADMINIPORT){Add-Content $configFile "FARMADMINIPORT=`"$env:choco:sqlserverNext:FARMADMINIPORT`""}</v>
       </c>
       <c r="N43" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>$env:choco:sqlserver:2014FARMADMINIPORT=""</v>
+        <v>$env:choco:sqlserverNext:FARMADMINIPORT=""</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" si="1"/>
         <v>BROWSERSVCSTARTUPTYPE</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J44" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>choco:sqlserver:2014BROWSERSVCSTARTUPTYPE</v>
+        <v>choco:sqlserverNext:BROWSERSVCSTARTUPTYPE</v>
       </c>
       <c r="K44" s="1"/>
       <c r="L44" s="3" t="str">
@@ -2420,33 +2423,33 @@
       </c>
       <c r="M44" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>if (Test-Path env:\choco:sqlserver:2014BROWSERSVCSTARTUPTYPE){Add-Content $configFile "BROWSERSVCSTARTUPTYPE=`"$env:choco:sqlserver:2014BROWSERSVCSTARTUPTYPE`""}</v>
+        <v>if (Test-Path env:\choco:sqlserverNext:BROWSERSVCSTARTUPTYPE){Add-Content $configFile "BROWSERSVCSTARTUPTYPE=`"$env:choco:sqlserverNext:BROWSERSVCSTARTUPTYPE`""}</v>
       </c>
       <c r="N44" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>$env:choco:sqlserver:2014BROWSERSVCSTARTUPTYPE=""</v>
+        <v>$env:choco:sqlserverNext:BROWSERSVCSTARTUPTYPE=""</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" si="1"/>
         <v>ENABLERANU</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J45" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>choco:sqlserver:2014ENABLERANU</v>
+        <v>choco:sqlserverNext:ENABLERANU</v>
       </c>
       <c r="K45" s="1"/>
       <c r="L45" s="3" t="str">
@@ -2455,33 +2458,33 @@
       </c>
       <c r="M45" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>if (Test-Path env:\choco:sqlserver:2014ENABLERANU){Add-Content $configFile "ENABLERANU=`"$env:choco:sqlserver:2014ENABLERANU`""}</v>
+        <v>if (Test-Path env:\choco:sqlserverNext:ENABLERANU){Add-Content $configFile "ENABLERANU=`"$env:choco:sqlserverNext:ENABLERANU`""}</v>
       </c>
       <c r="N45" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>$env:choco:sqlserver:2014ENABLERANU=""</v>
+        <v>$env:choco:sqlserverNext:ENABLERANU=""</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" si="1"/>
         <v>INSTALLSQLDATADIR</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J46" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>choco:sqlserver:2014INSTALLSQLDATADIR</v>
+        <v>choco:sqlserverNext:INSTALLSQLDATADIR</v>
       </c>
       <c r="K46" s="1"/>
       <c r="L46" s="3" t="str">
@@ -2490,36 +2493,36 @@
       </c>
       <c r="M46" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>if (Test-Path env:\choco:sqlserver:2014INSTALLSQLDATADIR){Add-Content $configFile "INSTALLSQLDATADIR=`"$env:choco:sqlserver:2014INSTALLSQLDATADIR`""}</v>
+        <v>if (Test-Path env:\choco:sqlserverNext:INSTALLSQLDATADIR){Add-Content $configFile "INSTALLSQLDATADIR=`"$env:choco:sqlserverNext:INSTALLSQLDATADIR`""}</v>
       </c>
       <c r="N46" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>$env:choco:sqlserver:2014INSTALLSQLDATADIR=""</v>
+        <v>$env:choco:sqlserverNext:INSTALLSQLDATADIR=""</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" si="1"/>
         <v>SAPWD</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G47" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J47" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>choco:sqlserver:2014SAPWD</v>
+        <v>choco:sqlserverNext:SAPWD</v>
       </c>
       <c r="K47" s="1"/>
       <c r="L47" s="3" t="str">
@@ -2528,33 +2531,33 @@
       </c>
       <c r="M47" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>if (Test-Path env:\choco:sqlserver:2014SAPWD){Add-Content $configFile "SAPWD=`"$env:choco:sqlserver:2014SAPWD`""}</v>
+        <v>if (Test-Path env:\choco:sqlserverNext:SAPWD){Add-Content $configFile "SAPWD=`"$env:choco:sqlserverNext:SAPWD`""}</v>
       </c>
       <c r="N47" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>$env:choco:sqlserver:2014SAPWD=""</v>
+        <v>$env:choco:sqlserverNext:SAPWD=""</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C48" t="str">
         <f t="shared" si="1"/>
         <v>SECURITYMODE</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J48" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>choco:sqlserver:2014SECURITYMODE</v>
+        <v>choco:sqlserverNext:SECURITYMODE</v>
       </c>
       <c r="K48" s="1"/>
       <c r="L48" s="3" t="str">
@@ -2563,33 +2566,33 @@
       </c>
       <c r="M48" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>if (Test-Path env:\choco:sqlserver:2014SECURITYMODE){Add-Content $configFile "SECURITYMODE=`"$env:choco:sqlserver:2014SECURITYMODE`""}</v>
+        <v>if (Test-Path env:\choco:sqlserverNext:SECURITYMODE){Add-Content $configFile "SECURITYMODE=`"$env:choco:sqlserverNext:SECURITYMODE`""}</v>
       </c>
       <c r="N48" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>$env:choco:sqlserver:2014SECURITYMODE=""</v>
+        <v>$env:choco:sqlserverNext:SECURITYMODE=""</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" si="1"/>
         <v>SQLBACKUPDIR</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J49" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>choco:sqlserver:2014SQLBACKUPDIR</v>
+        <v>choco:sqlserverNext:SQLBACKUPDIR</v>
       </c>
       <c r="K49" s="1"/>
       <c r="L49" s="3" t="str">
@@ -2598,33 +2601,33 @@
       </c>
       <c r="M49" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>if (Test-Path env:\choco:sqlserver:2014SQLBACKUPDIR){Add-Content $configFile "SQLBACKUPDIR=`"$env:choco:sqlserver:2014SQLBACKUPDIR`""}</v>
+        <v>if (Test-Path env:\choco:sqlserverNext:SQLBACKUPDIR){Add-Content $configFile "SQLBACKUPDIR=`"$env:choco:sqlserverNext:SQLBACKUPDIR`""}</v>
       </c>
       <c r="N49" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>$env:choco:sqlserver:2014SQLBACKUPDIR=""</v>
+        <v>$env:choco:sqlserverNext:SQLBACKUPDIR=""</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" si="1"/>
         <v>SQLCOLLATION</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J50" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>choco:sqlserver:2014SQLCOLLATION</v>
+        <v>choco:sqlserverNext:SQLCOLLATION</v>
       </c>
       <c r="K50" s="1"/>
       <c r="L50" s="3" t="str">
@@ -2633,33 +2636,33 @@
       </c>
       <c r="M50" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>if (Test-Path env:\choco:sqlserver:2014SQLCOLLATION){Add-Content $configFile "SQLCOLLATION=`"$env:choco:sqlserver:2014SQLCOLLATION`""}</v>
+        <v>if (Test-Path env:\choco:sqlserverNext:SQLCOLLATION){Add-Content $configFile "SQLCOLLATION=`"$env:choco:sqlserverNext:SQLCOLLATION`""}</v>
       </c>
       <c r="N50" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>$env:choco:sqlserver:2014SQLCOLLATION=""</v>
+        <v>$env:choco:sqlserverNext:SQLCOLLATION=""</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C51" t="str">
         <f t="shared" si="1"/>
         <v>ADDCURRENTUSERASSQLADMIN</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J51" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>choco:sqlserver:2014ADDCURRENTUSERASSQLADMIN</v>
+        <v>choco:sqlserverNext:ADDCURRENTUSERASSQLADMIN</v>
       </c>
       <c r="K51" s="1"/>
       <c r="L51" s="3" t="str">
@@ -2668,79 +2671,79 @@
       </c>
       <c r="M51" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>if (Test-Path env:\choco:sqlserver:2014ADDCURRENTUSERASSQLADMIN){Add-Content $configFile "ADDCURRENTUSERASSQLADMIN=`"$env:choco:sqlserver:2014ADDCURRENTUSERASSQLADMIN`""}</v>
+        <v>if (Test-Path env:\choco:sqlserverNext:ADDCURRENTUSERASSQLADMIN){Add-Content $configFile "ADDCURRENTUSERASSQLADMIN=`"$env:choco:sqlserverNext:ADDCURRENTUSERASSQLADMIN`""}</v>
       </c>
       <c r="N51" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>$env:choco:sqlserver:2014ADDCURRENTUSERASSQLADMIN=""</v>
+        <v>$env:choco:sqlserverNext:ADDCURRENTUSERASSQLADMIN=""</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C52" t="str">
         <f t="shared" si="1"/>
         <v>SQLSVCACCOUNT</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E52" s="10">
         <v>1.0</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J52" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>choco:sqlserver:2014SQLSVCACCOUNT</v>
+        <v>choco:sqlserverNext:SQLSVCACCOUNT</v>
       </c>
       <c r="K52" s="1">
         <v>1.0</v>
       </c>
       <c r="L52" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>if (!(Test-Path env:\choco:sqlserver:2014SQLSVCACCOUNT)){$env:choco:sqlserver:2014SQLSVCACCOUNT="NT Service\MSSQLSERVER"}</v>
+        <v>if (!(Test-Path env:\choco:sqlserverNext:SQLSVCACCOUNT)){$env:choco:sqlserverNext:SQLSVCACCOUNT="NT Service\MSSQLSERVER"}</v>
       </c>
       <c r="M52" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>if (Test-Path env:\choco:sqlserver:2014SQLSVCACCOUNT){Add-Content $configFile "SQLSVCACCOUNT=`"$env:choco:sqlserver:2014SQLSVCACCOUNT`""}</v>
+        <v>if (Test-Path env:\choco:sqlserverNext:SQLSVCACCOUNT){Add-Content $configFile "SQLSVCACCOUNT=`"$env:choco:sqlserverNext:SQLSVCACCOUNT`""}</v>
       </c>
       <c r="N52" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>$env:choco:sqlserver:2014SQLSVCACCOUNT=""</v>
+        <v>$env:choco:sqlserverNext:SQLSVCACCOUNT=""</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C53" t="str">
         <f t="shared" si="1"/>
         <v>SQLSVCPASSWORD</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E53" s="10">
         <v>1.0</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J53" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>choco:sqlserver:2014SQLSVCPASSWORD</v>
+        <v>choco:sqlserverNext:SQLSVCPASSWORD</v>
       </c>
       <c r="K53" s="1"/>
       <c r="L53" s="3" t="str">
@@ -2749,116 +2752,116 @@
       </c>
       <c r="M53" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>if (Test-Path env:\choco:sqlserver:2014SQLSVCPASSWORD){Add-Content $configFile "SQLSVCPASSWORD=`"$env:choco:sqlserver:2014SQLSVCPASSWORD`""}</v>
+        <v>if (Test-Path env:\choco:sqlserverNext:SQLSVCPASSWORD){Add-Content $configFile "SQLSVCPASSWORD=`"$env:choco:sqlserverNext:SQLSVCPASSWORD`""}</v>
       </c>
       <c r="N53" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>$env:choco:sqlserver:2014SQLSVCPASSWORD=""</v>
+        <v>$env:choco:sqlserverNext:SQLSVCPASSWORD=""</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="1"/>
+        <v>SQLSVCSTARTUPTYPE</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G54" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B54" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="C54" t="str">
-        <f t="shared" si="1"/>
-        <v>SQLSVCSTARTUPTYPE</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F54" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="G54" s="10" t="s">
-        <v>111</v>
-      </c>
       <c r="J54" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>choco:sqlserver:2014SQLSVCSTARTUPTYPE</v>
+        <v>choco:sqlserverNext:SQLSVCSTARTUPTYPE</v>
       </c>
       <c r="K54" s="1">
         <v>1.0</v>
       </c>
       <c r="L54" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>if (!(Test-Path env:\choco:sqlserver:2014SQLSVCSTARTUPTYPE)){$env:choco:sqlserver:2014SQLSVCSTARTUPTYPE="Automatic"}</v>
+        <v>if (!(Test-Path env:\choco:sqlserverNext:SQLSVCSTARTUPTYPE)){$env:choco:sqlserverNext:SQLSVCSTARTUPTYPE="Automatic"}</v>
       </c>
       <c r="M54" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>if (Test-Path env:\choco:sqlserver:2014SQLSVCSTARTUPTYPE){Add-Content $configFile "SQLSVCSTARTUPTYPE=`"$env:choco:sqlserver:2014SQLSVCSTARTUPTYPE`""}</v>
+        <v>if (Test-Path env:\choco:sqlserverNext:SQLSVCSTARTUPTYPE){Add-Content $configFile "SQLSVCSTARTUPTYPE=`"$env:choco:sqlserverNext:SQLSVCSTARTUPTYPE`""}</v>
       </c>
       <c r="N54" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>$env:choco:sqlserver:2014SQLSVCSTARTUPTYPE=""</v>
+        <v>$env:choco:sqlserverNext:SQLSVCSTARTUPTYPE=""</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C55" t="str">
         <f t="shared" si="1"/>
         <v>SQLSYSADMINACCOUNTS</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E55" s="10">
         <v>0.0</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G55" s="15" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J55" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>choco:sqlserver:2014SQLSYSADMINACCOUNTS</v>
+        <v>choco:sqlserverNext:SQLSYSADMINACCOUNTS</v>
       </c>
       <c r="K55" s="1">
         <v>1.0</v>
       </c>
       <c r="L55" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>if (!(Test-Path env:\choco:sqlserver:2014SQLSYSADMINACCOUNTS)){$env:choco:sqlserver:2014SQLSYSADMINACCOUNTS="$thisUser"}</v>
+        <v>if (!(Test-Path env:\choco:sqlserverNext:SQLSYSADMINACCOUNTS)){$env:choco:sqlserverNext:SQLSYSADMINACCOUNTS="$thisUser"}</v>
       </c>
       <c r="M55" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>if (Test-Path env:\choco:sqlserver:2014SQLSYSADMINACCOUNTS){Add-Content $configFile "SQLSYSADMINACCOUNTS=`"$env:choco:sqlserver:2014SQLSYSADMINACCOUNTS`""}</v>
+        <v>if (Test-Path env:\choco:sqlserverNext:SQLSYSADMINACCOUNTS){Add-Content $configFile "SQLSYSADMINACCOUNTS=`"$env:choco:sqlserverNext:SQLSYSADMINACCOUNTS`""}</v>
       </c>
       <c r="N55" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>$env:choco:sqlserver:2014SQLSYSADMINACCOUNTS=""</v>
+        <v>$env:choco:sqlserverNext:SQLSYSADMINACCOUNTS=""</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C56" t="str">
         <f t="shared" si="1"/>
         <v>SQLTEMPDBDIR</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J56" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>choco:sqlserver:2014SQLTEMPDBDIR</v>
+        <v>choco:sqlserverNext:SQLTEMPDBDIR</v>
       </c>
       <c r="K56" s="1"/>
       <c r="L56" s="3" t="str">
@@ -2867,33 +2870,33 @@
       </c>
       <c r="M56" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>if (Test-Path env:\choco:sqlserver:2014SQLTEMPDBDIR){Add-Content $configFile "SQLTEMPDBDIR=`"$env:choco:sqlserver:2014SQLTEMPDBDIR`""}</v>
+        <v>if (Test-Path env:\choco:sqlserverNext:SQLTEMPDBDIR){Add-Content $configFile "SQLTEMPDBDIR=`"$env:choco:sqlserverNext:SQLTEMPDBDIR`""}</v>
       </c>
       <c r="N56" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>$env:choco:sqlserver:2014SQLTEMPDBDIR=""</v>
+        <v>$env:choco:sqlserverNext:SQLTEMPDBDIR=""</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C57" t="str">
         <f t="shared" si="1"/>
         <v>SQLTEMPDBLOGDIR</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J57" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>choco:sqlserver:2014SQLTEMPDBLOGDIR</v>
+        <v>choco:sqlserverNext:SQLTEMPDBLOGDIR</v>
       </c>
       <c r="K57" s="1"/>
       <c r="L57" s="3" t="str">
@@ -2902,33 +2905,33 @@
       </c>
       <c r="M57" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>if (Test-Path env:\choco:sqlserver:2014SQLTEMPDBLOGDIR){Add-Content $configFile "SQLTEMPDBLOGDIR=`"$env:choco:sqlserver:2014SQLTEMPDBLOGDIR`""}</v>
+        <v>if (Test-Path env:\choco:sqlserverNext:SQLTEMPDBLOGDIR){Add-Content $configFile "SQLTEMPDBLOGDIR=`"$env:choco:sqlserverNext:SQLTEMPDBLOGDIR`""}</v>
       </c>
       <c r="N57" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>$env:choco:sqlserver:2014SQLTEMPDBLOGDIR=""</v>
+        <v>$env:choco:sqlserverNext:SQLTEMPDBLOGDIR=""</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C58" t="str">
         <f t="shared" si="1"/>
         <v>SQLUSERDBDIR</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J58" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>choco:sqlserver:2014SQLUSERDBDIR</v>
+        <v>choco:sqlserverNext:SQLUSERDBDIR</v>
       </c>
       <c r="K58" s="1"/>
       <c r="L58" s="3" t="str">
@@ -2937,33 +2940,33 @@
       </c>
       <c r="M58" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>if (Test-Path env:\choco:sqlserver:2014SQLUSERDBDIR){Add-Content $configFile "SQLUSERDBDIR=`"$env:choco:sqlserver:2014SQLUSERDBDIR`""}</v>
+        <v>if (Test-Path env:\choco:sqlserverNext:SQLUSERDBDIR){Add-Content $configFile "SQLUSERDBDIR=`"$env:choco:sqlserverNext:SQLUSERDBDIR`""}</v>
       </c>
       <c r="N58" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>$env:choco:sqlserver:2014SQLUSERDBDIR=""</v>
+        <v>$env:choco:sqlserverNext:SQLUSERDBDIR=""</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C59" t="str">
         <f t="shared" si="1"/>
         <v>SQLUSERDBLOGDIR</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J59" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>choco:sqlserver:2014SQLUSERDBLOGDIR</v>
+        <v>choco:sqlserverNext:SQLUSERDBLOGDIR</v>
       </c>
       <c r="K59" s="1"/>
       <c r="L59" s="3" t="str">
@@ -2972,33 +2975,33 @@
       </c>
       <c r="M59" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>if (Test-Path env:\choco:sqlserver:2014SQLUSERDBLOGDIR){Add-Content $configFile "SQLUSERDBLOGDIR=`"$env:choco:sqlserver:2014SQLUSERDBLOGDIR`""}</v>
+        <v>if (Test-Path env:\choco:sqlserverNext:SQLUSERDBLOGDIR){Add-Content $configFile "SQLUSERDBLOGDIR=`"$env:choco:sqlserverNext:SQLUSERDBLOGDIR`""}</v>
       </c>
       <c r="N59" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>$env:choco:sqlserver:2014SQLUSERDBLOGDIR=""</v>
+        <v>$env:choco:sqlserverNext:SQLUSERDBLOGDIR=""</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C60" t="str">
         <f t="shared" si="1"/>
         <v>FILESTREAMLEVEL</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J60" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>choco:sqlserver:2014FILESTREAMLEVEL</v>
+        <v>choco:sqlserverNext:FILESTREAMLEVEL</v>
       </c>
       <c r="K60" s="1"/>
       <c r="L60" s="3" t="str">
@@ -3007,70 +3010,70 @@
       </c>
       <c r="M60" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>if (Test-Path env:\choco:sqlserver:2014FILESTREAMLEVEL){Add-Content $configFile "FILESTREAMLEVEL=`"$env:choco:sqlserver:2014FILESTREAMLEVEL`""}</v>
+        <v>if (Test-Path env:\choco:sqlserverNext:FILESTREAMLEVEL){Add-Content $configFile "FILESTREAMLEVEL=`"$env:choco:sqlserverNext:FILESTREAMLEVEL`""}</v>
       </c>
       <c r="N60" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>$env:choco:sqlserver:2014FILESTREAMLEVEL=""</v>
+        <v>$env:choco:sqlserverNext:FILESTREAMLEVEL=""</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C61" t="str">
         <f t="shared" si="1"/>
         <v>FILESTREAMSHARENAME</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J61" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>choco:sqlserver:2014FILESTREAMSHARENAME</v>
+        <v>choco:sqlserverNext:FILESTREAMSHARENAME</v>
       </c>
       <c r="K61" s="1">
         <v>1.0</v>
       </c>
       <c r="L61" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>if (!(Test-Path env:\choco:sqlserver:2014FILESTREAMSHARENAME)){$env:choco:sqlserver:2014FILESTREAMSHARENAME=""}</v>
+        <v>if (!(Test-Path env:\choco:sqlserverNext:FILESTREAMSHARENAME)){$env:choco:sqlserverNext:FILESTREAMSHARENAME=""}</v>
       </c>
       <c r="M61" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>if (Test-Path env:\choco:sqlserver:2014FILESTREAMSHARENAME){Add-Content $configFile "FILESTREAMSHARENAME=`"$env:choco:sqlserver:2014FILESTREAMSHARENAME`""}</v>
+        <v>if (Test-Path env:\choco:sqlserverNext:FILESTREAMSHARENAME){Add-Content $configFile "FILESTREAMSHARENAME=`"$env:choco:sqlserverNext:FILESTREAMSHARENAME`""}</v>
       </c>
       <c r="N61" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>$env:choco:sqlserver:2014FILESTREAMSHARENAME=""</v>
+        <v>$env:choco:sqlserverNext:FILESTREAMSHARENAME=""</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C62" t="str">
         <f t="shared" si="1"/>
         <v>FTSVCACCOUNT</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J62" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>choco:sqlserver:2014FTSVCACCOUNT</v>
+        <v>choco:sqlserverNext:FTSVCACCOUNT</v>
       </c>
       <c r="K62" s="1"/>
       <c r="L62" s="3" t="str">
@@ -3079,33 +3082,33 @@
       </c>
       <c r="M62" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>if (Test-Path env:\choco:sqlserver:2014FTSVCACCOUNT){Add-Content $configFile "FTSVCACCOUNT=`"$env:choco:sqlserver:2014FTSVCACCOUNT`""}</v>
+        <v>if (Test-Path env:\choco:sqlserverNext:FTSVCACCOUNT){Add-Content $configFile "FTSVCACCOUNT=`"$env:choco:sqlserverNext:FTSVCACCOUNT`""}</v>
       </c>
       <c r="N62" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>$env:choco:sqlserver:2014FTSVCACCOUNT=""</v>
+        <v>$env:choco:sqlserverNext:FTSVCACCOUNT=""</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C63" t="str">
         <f t="shared" si="1"/>
         <v>FTSVCPASSWORD</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J63" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>choco:sqlserver:2014FTSVCPASSWORD</v>
+        <v>choco:sqlserverNext:FTSVCPASSWORD</v>
       </c>
       <c r="K63" s="1"/>
       <c r="L63" s="3" t="str">
@@ -3114,36 +3117,36 @@
       </c>
       <c r="M63" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>if (Test-Path env:\choco:sqlserver:2014FTSVCPASSWORD){Add-Content $configFile "FTSVCPASSWORD=`"$env:choco:sqlserver:2014FTSVCPASSWORD`""}</v>
+        <v>if (Test-Path env:\choco:sqlserverNext:FTSVCPASSWORD){Add-Content $configFile "FTSVCPASSWORD=`"$env:choco:sqlserverNext:FTSVCPASSWORD`""}</v>
       </c>
       <c r="N63" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>$env:choco:sqlserver:2014FTSVCPASSWORD=""</v>
+        <v>$env:choco:sqlserverNext:FTSVCPASSWORD=""</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C64" t="str">
         <f t="shared" si="1"/>
         <v>ISSVCACCOUNT</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E64" s="10">
         <v>1.0</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J64" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>choco:sqlserver:2014ISSVCACCOUNT</v>
+        <v>choco:sqlserverNext:ISSVCACCOUNT</v>
       </c>
       <c r="K64" s="1"/>
       <c r="L64" s="3" t="str">
@@ -3152,33 +3155,33 @@
       </c>
       <c r="M64" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>if (Test-Path env:\choco:sqlserver:2014ISSVCACCOUNT){Add-Content $configFile "ISSVCACCOUNT=`"$env:choco:sqlserver:2014ISSVCACCOUNT`""}</v>
+        <v>if (Test-Path env:\choco:sqlserverNext:ISSVCACCOUNT){Add-Content $configFile "ISSVCACCOUNT=`"$env:choco:sqlserverNext:ISSVCACCOUNT`""}</v>
       </c>
       <c r="N64" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>$env:choco:sqlserver:2014ISSVCACCOUNT=""</v>
+        <v>$env:choco:sqlserverNext:ISSVCACCOUNT=""</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C65" t="str">
         <f t="shared" si="1"/>
         <v>ISSVCPASSWORD</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J65" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>choco:sqlserver:2014ISSVCPASSWORD</v>
+        <v>choco:sqlserverNext:ISSVCPASSWORD</v>
       </c>
       <c r="K65" s="1"/>
       <c r="L65" s="3" t="str">
@@ -3187,33 +3190,33 @@
       </c>
       <c r="M65" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>if (Test-Path env:\choco:sqlserver:2014ISSVCPASSWORD){Add-Content $configFile "ISSVCPASSWORD=`"$env:choco:sqlserver:2014ISSVCPASSWORD`""}</v>
+        <v>if (Test-Path env:\choco:sqlserverNext:ISSVCPASSWORD){Add-Content $configFile "ISSVCPASSWORD=`"$env:choco:sqlserverNext:ISSVCPASSWORD`""}</v>
       </c>
       <c r="N65" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>$env:choco:sqlserver:2014ISSVCPASSWORD=""</v>
+        <v>$env:choco:sqlserverNext:ISSVCPASSWORD=""</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C66" t="str">
         <f t="shared" si="1"/>
         <v>ISSVCStartupType</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J66" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>choco:sqlserver:2014ISSVCStartupType</v>
+        <v>choco:sqlserverNext:ISSVCStartupType</v>
       </c>
       <c r="K66" s="1"/>
       <c r="L66" s="3" t="str">
@@ -3222,33 +3225,33 @@
       </c>
       <c r="M66" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>if (Test-Path env:\choco:sqlserver:2014ISSVCStartupType){Add-Content $configFile "ISSVCStartupType=`"$env:choco:sqlserver:2014ISSVCStartupType`""}</v>
+        <v>if (Test-Path env:\choco:sqlserverNext:ISSVCStartupType){Add-Content $configFile "ISSVCStartupType=`"$env:choco:sqlserverNext:ISSVCStartupType`""}</v>
       </c>
       <c r="N66" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>$env:choco:sqlserver:2014ISSVCStartupType=""</v>
+        <v>$env:choco:sqlserverNext:ISSVCStartupType=""</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C67" t="str">
         <f t="shared" si="1"/>
         <v>NPENABLED</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J67" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>choco:sqlserver:2014NPENABLED</v>
+        <v>choco:sqlserverNext:NPENABLED</v>
       </c>
       <c r="K67" s="1"/>
       <c r="L67" s="3" t="str">
@@ -3257,33 +3260,33 @@
       </c>
       <c r="M67" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>if (Test-Path env:\choco:sqlserver:2014NPENABLED){Add-Content $configFile "NPENABLED=`"$env:choco:sqlserver:2014NPENABLED`""}</v>
+        <v>if (Test-Path env:\choco:sqlserverNext:NPENABLED){Add-Content $configFile "NPENABLED=`"$env:choco:sqlserverNext:NPENABLED`""}</v>
       </c>
       <c r="N67" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>$env:choco:sqlserver:2014NPENABLED=""</v>
+        <v>$env:choco:sqlserverNext:NPENABLED=""</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C68" t="str">
         <f t="shared" si="1"/>
         <v>TCPENABLED</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J68" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>choco:sqlserver:2014TCPENABLED</v>
+        <v>choco:sqlserverNext:TCPENABLED</v>
       </c>
       <c r="K68" s="1"/>
       <c r="L68" s="3" t="str">
@@ -3292,33 +3295,33 @@
       </c>
       <c r="M68" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>if (Test-Path env:\choco:sqlserver:2014TCPENABLED){Add-Content $configFile "TCPENABLED=`"$env:choco:sqlserver:2014TCPENABLED`""}</v>
+        <v>if (Test-Path env:\choco:sqlserverNext:TCPENABLED){Add-Content $configFile "TCPENABLED=`"$env:choco:sqlserverNext:TCPENABLED`""}</v>
       </c>
       <c r="N68" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>$env:choco:sqlserver:2014TCPENABLED=""</v>
+        <v>$env:choco:sqlserverNext:TCPENABLED=""</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C69" t="str">
         <f t="shared" si="1"/>
         <v>RSINSTALLMODE</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J69" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>choco:sqlserver:2014RSINSTALLMODE</v>
+        <v>choco:sqlserverNext:RSINSTALLMODE</v>
       </c>
       <c r="K69" s="1"/>
       <c r="L69" s="3" t="str">
@@ -3327,36 +3330,36 @@
       </c>
       <c r="M69" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>if (Test-Path env:\choco:sqlserver:2014RSINSTALLMODE){Add-Content $configFile "RSINSTALLMODE=`"$env:choco:sqlserver:2014RSINSTALLMODE`""}</v>
+        <v>if (Test-Path env:\choco:sqlserverNext:RSINSTALLMODE){Add-Content $configFile "RSINSTALLMODE=`"$env:choco:sqlserverNext:RSINSTALLMODE`""}</v>
       </c>
       <c r="N69" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>$env:choco:sqlserver:2014RSINSTALLMODE=""</v>
+        <v>$env:choco:sqlserverNext:RSINSTALLMODE=""</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C70" t="str">
         <f t="shared" si="1"/>
         <v>RSSVCACCOUNT</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E70" s="10">
         <v>1.0</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J70" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>choco:sqlserver:2014RSSVCACCOUNT</v>
+        <v>choco:sqlserverNext:RSSVCACCOUNT</v>
       </c>
       <c r="K70" s="1"/>
       <c r="L70" s="3" t="str">
@@ -3365,36 +3368,36 @@
       </c>
       <c r="M70" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>if (Test-Path env:\choco:sqlserver:2014RSSVCACCOUNT){Add-Content $configFile "RSSVCACCOUNT=`"$env:choco:sqlserver:2014RSSVCACCOUNT`""}</v>
+        <v>if (Test-Path env:\choco:sqlserverNext:RSSVCACCOUNT){Add-Content $configFile "RSSVCACCOUNT=`"$env:choco:sqlserverNext:RSSVCACCOUNT`""}</v>
       </c>
       <c r="N70" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>$env:choco:sqlserver:2014RSSVCACCOUNT=""</v>
+        <v>$env:choco:sqlserverNext:RSSVCACCOUNT=""</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C71" t="str">
         <f t="shared" si="1"/>
         <v>RSSVCPASSWORD</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E71" s="10">
         <v>1.0</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J71" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>choco:sqlserver:2014RSSVCPASSWORD</v>
+        <v>choco:sqlserverNext:RSSVCPASSWORD</v>
       </c>
       <c r="K71" s="1"/>
       <c r="L71" s="3" t="str">
@@ -3403,33 +3406,33 @@
       </c>
       <c r="M71" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>if (Test-Path env:\choco:sqlserver:2014RSSVCPASSWORD){Add-Content $configFile "RSSVCPASSWORD=`"$env:choco:sqlserver:2014RSSVCPASSWORD`""}</v>
+        <v>if (Test-Path env:\choco:sqlserverNext:RSSVCPASSWORD){Add-Content $configFile "RSSVCPASSWORD=`"$env:choco:sqlserverNext:RSSVCPASSWORD`""}</v>
       </c>
       <c r="N71" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>$env:choco:sqlserver:2014RSSVCPASSWORD=""</v>
+        <v>$env:choco:sqlserverNext:RSSVCPASSWORD=""</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C72" t="str">
         <f t="shared" si="1"/>
         <v>RSSVCStartupType</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J72" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>choco:sqlserver:2014RSSVCStartupType</v>
+        <v>choco:sqlserverNext:RSSVCStartupType</v>
       </c>
       <c r="K72" s="1"/>
       <c r="L72" s="3" t="str">
@@ -3438,11 +3441,11 @@
       </c>
       <c r="M72" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>if (Test-Path env:\choco:sqlserver:2014RSSVCStartupType){Add-Content $configFile "RSSVCStartupType=`"$env:choco:sqlserver:2014RSSVCStartupType`""}</v>
+        <v>if (Test-Path env:\choco:sqlserverNext:RSSVCStartupType){Add-Content $configFile "RSSVCStartupType=`"$env:choco:sqlserverNext:RSSVCStartupType`""}</v>
       </c>
       <c r="N72" s="3" t="str">
         <f t="shared" si="5"/>
-        <v>$env:choco:sqlserver:2014RSSVCStartupType=""</v>
+        <v>$env:choco:sqlserverNext:RSSVCStartupType=""</v>
       </c>
     </row>
     <row r="73">
